--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>changeProviderManualTimeSet</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +782,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -793,112 +793,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1028,18 +1028,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Execute</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Heal4325!</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>remote</t>
@@ -736,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,7 +779,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -793,7 +790,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -804,7 +801,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -815,7 +812,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -826,7 +823,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -848,7 +845,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -881,7 +878,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -915,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -940,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Execute</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Heal4325!</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,7 +779,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -793,7 +790,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -804,7 +801,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -815,7 +812,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -826,7 +823,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -848,7 +845,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -881,7 +878,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Execute</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Heal4325!</t>
+  </si>
+  <si>
+    <t>threadCount</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
@@ -912,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1046,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -162,9 +162,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>changeProviderManualTimeSet</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -799,10 +799,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,10 +865,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,10 +876,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -898,10 +898,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +919,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,26 +1031,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -68,10 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1280x960</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>browserName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,6 +216,9 @@
   </si>
   <si>
     <t>remote</t>
+  </si>
+  <si>
+    <t>1400x1050</t>
   </si>
 </sst>
 </file>
@@ -774,134 +773,134 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +918,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,18 +939,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -959,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,12 +974,12 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -991,66 +990,66 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,34 +1198,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>1400x1050</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,7 +776,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -784,7 +787,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -861,7 +864,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -894,7 +897,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Execute</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>1400x1050</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -742,7 +739,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +773,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -853,7 +850,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -864,7 +861,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="3480" yWindow="3000" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -212,13 +212,13 @@
     <t>threadCount</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>remote</t>
   </si>
   <si>
     <t>1400x1050</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Configs" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Execute</t>
   </si>
@@ -167,7 +183,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
@@ -205,46 +221,42 @@
   <si>
     <t>doNotRunInPROD</t>
   </si>
+  <si>
+    <t>qa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -422,87 +434,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -513,8 +481,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -525,20 +505,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -547,35 +515,98 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -701,7 +732,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -710,7 +741,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -719,7 +750,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -793,7 +824,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -801,7 +832,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -820,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,9 +1102,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1088,7 +1125,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1096,7 +1133,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1115,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,9 +1399,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1378,7 +1421,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1397,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,230 +1691,239 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" t="s" s="4">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" t="s" s="4">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="7"/>
@@ -1879,7 +1931,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1887,391 +1939,392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="8" customWidth="1"/>
-    <col min="6" max="256" width="9.17188" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="8" customWidth="1"/>
+    <col min="6" max="256" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="12">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="13">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="13">
-        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>38</v>
+      <c r="B7" s="13" t="str">
+        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="14">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="15">
-        <v>40</v>
+      <c r="B8" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="16">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s" s="16">
+      <c r="B9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2280,36 +2333,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2317,101 +2370,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="17" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2420,7 +2471,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Configs" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -133,9 +149,6 @@
   </si>
   <si>
     <t>ENV</t>
-  </si>
-  <si>
-    <t>QA</t>
   </si>
   <si>
     <t>USERNAME</t>
@@ -167,7 +180,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
@@ -194,55 +207,45 @@
     <t>URLs</t>
   </si>
   <si>
-    <t>DEV</t>
-  </si>
-  <si>
     <t>-dev.heal.com</t>
   </si>
   <si>
-    <t>PROD</t>
-  </si>
-  <si>
     <t>doNotRunInPROD</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
@@ -423,65 +426,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,20 +454,8 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -513,8 +466,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -525,20 +490,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -547,35 +500,98 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -701,7 +717,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -710,7 +726,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -719,7 +735,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -793,7 +809,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -801,7 +817,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -820,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,9 +1087,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1088,7 +1110,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1096,7 +1118,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1115,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,9 +1384,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1378,7 +1406,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1397,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +1611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,230 +1676,239 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" t="s" s="4">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" t="s" s="4">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="7"/>
@@ -1879,7 +1916,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1887,391 +1924,392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="8" customWidth="1"/>
-    <col min="6" max="256" width="9.17188" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="8" customWidth="1"/>
+    <col min="6" max="256" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="12">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="13">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="13">
-        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>38</v>
+      <c r="B7" s="13" t="str">
+        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="14">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="15">
-        <v>40</v>
+      <c r="B8" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="16">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s" s="16">
-        <v>42</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>44</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>46</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>48</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>50</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>52</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>54</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2280,36 +2318,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2317,101 +2355,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="17" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s" s="4">
-        <v>56</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>58</v>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2420,7 +2458,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Execute</t>
   </si>
@@ -184,6 +184,7 @@
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>vahan+qa@heal.com</t>
     </r>
@@ -220,6 +221,12 @@
   </si>
   <si>
     <t>prod</t>
+  </si>
+  <si>
+    <t>implicitWait</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -237,18 +244,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1697,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2107,8 +2117,12 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1"/>
+    <workbookView xWindow="27540" yWindow="3160" windowWidth="22160" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="27540" yWindow="3160" windowWidth="22160" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
-    <sheet name="Configs" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
+    <sheet name="Configs" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Execute</t>
   </si>
@@ -106,6 +90,9 @@
     <t>refundVisitTotal</t>
   </si>
   <si>
+    <t>editPatientProfileFromVisitDetailsCard</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -149,6 +136,9 @@
   </si>
   <si>
     <t>ENV</t>
+  </si>
+  <si>
+    <t>qa</t>
   </si>
   <si>
     <t>USERNAME</t>
@@ -180,11 +170,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>vahan+qa@heal.com</t>
     </r>
@@ -202,63 +191,70 @@
     <t>4</t>
   </si>
   <si>
+    <t>implicitWait</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environment </t>
   </si>
   <si>
     <t>URLs</t>
   </si>
   <si>
+    <t>dev</t>
+  </si>
+  <si>
     <t>-dev.heal.com</t>
   </si>
   <si>
+    <t>prod</t>
+  </si>
+  <si>
     <t>doNotRunInPROD</t>
-  </si>
-  <si>
-    <t>qa</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>implicitWait</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -436,27 +432,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +498,20 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF000000"/>
+        <b val="1"/>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="ff000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -476,8 +522,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF000000"/>
+        <b val="1"/>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="ff000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -488,20 +546,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
+        <b val="1"/>
+        <color rgb="ff000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -510,98 +556,35 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff4f81bd"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFABF8F"/>
-      <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="fffabf8f"/>
+      <rgbColor rgb="ff9bbb59"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -727,7 +710,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -736,7 +719,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -745,7 +728,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -819,7 +802,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -827,7 +810,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -846,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,15 +1080,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1120,7 +1097,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1128,7 +1105,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1147,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,15 +1371,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1416,7 +1387,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1435,7 +1406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +1514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1569,7 +1540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,7 +1592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,7 +1618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1673,7 +1644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,247 +1657,252 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="15.5" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="5">
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s" s="4">
         <v>9</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s" s="4">
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s" s="4">
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s" s="4">
         <v>14</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s" s="4">
         <v>15</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s" s="4">
         <v>16</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s" s="4">
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s" s="4">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s" s="4">
         <v>21</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s" s="4">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s" s="4">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s" s="4">
         <v>20</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s" s="4">
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s" s="4">
         <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1934,396 +1910,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="8" customWidth="1"/>
-    <col min="6" max="256" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.3516" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.17188" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.17188" style="8" customWidth="1"/>
+    <col min="6" max="256" width="9.17188" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="9">
         <v>26</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>27</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="12">
         <v>28</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>30</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>31</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="4">
         <v>32</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>33</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>34</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>35</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="4">
         <v>36</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>37</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="13" t="str">
-        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
-        <v>.qa.heal.com</v>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>58</v>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>41</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>41</v>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="16">
+        <v>43</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>45</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>51</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>53</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>55</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>57</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2332,36 +2307,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2369,101 +2344,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="17" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1719" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.3516" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>59</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>61</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>57</v>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>63</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2472,7 +2447,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Execute</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>addInsuranceToVisit</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1923,6 +1926,20 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Configs" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Execute</t>
   </si>
@@ -170,7 +186,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
@@ -218,40 +234,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
@@ -432,65 +435,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,20 +463,8 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -522,8 +475,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -534,20 +499,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -556,35 +509,98 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -710,7 +726,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -719,7 +735,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -728,7 +744,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -802,7 +818,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -810,7 +826,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -829,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,9 +1096,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1097,7 +1119,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1105,7 +1127,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1124,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1354,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1380,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,9 +1393,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1387,7 +1415,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1406,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1566,7 +1594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1592,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1644,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,244 +1685,253 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" t="s" s="4">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" t="s" s="4">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" t="s" s="4">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7"/>
@@ -1902,7 +1939,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1910,395 +1947,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="8" customWidth="1"/>
-    <col min="6" max="256" width="9.17188" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="8" customWidth="1"/>
+    <col min="6" max="256" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="12">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="13">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="13">
-        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>39</v>
+      <c r="B7" s="13" t="str">
+        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="14">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="16">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s" s="16">
+      <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="4">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2307,36 +2343,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2344,101 +2380,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="17" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2447,7 +2481,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="41180" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Execute</t>
   </si>
@@ -70,40 +70,16 @@
     <t>changeProviderManualTimeSet</t>
   </si>
   <si>
-    <t>startVisit</t>
-  </si>
-  <si>
-    <t>endVisit</t>
-  </si>
-  <si>
-    <t>editVisitSymptoms</t>
-  </si>
-  <si>
-    <t>refundVisitPartial</t>
-  </si>
-  <si>
     <t>ops.web.tests.VisitDetailsModalTest</t>
   </si>
   <si>
     <t>changeProviderNoTime</t>
   </si>
   <si>
-    <t>cancelVisit</t>
-  </si>
-  <si>
     <t>ops.web.tests.VisitsTest</t>
   </si>
   <si>
-    <t>bookVisitWithInsurance</t>
-  </si>
-  <si>
-    <t>bookVisitWithCreditCard</t>
-  </si>
-  <si>
     <t>bookVisitWithPromoCode</t>
-  </si>
-  <si>
-    <t>refundVisitTotal</t>
   </si>
   <si>
     <t>editPatientProfileFromVisitDetailsCard</t>
@@ -190,6 +166,7 @@
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>vahan+qa@heal.com</t>
     </r>
@@ -229,13 +206,46 @@
   </si>
   <si>
     <t>doNotRunInPROD</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>startVisit</t>
+  </si>
+  <si>
+    <t>endVisit</t>
+  </si>
+  <si>
+    <t>editVisitSymptoms</t>
+  </si>
+  <si>
+    <t>refundVisitPartial</t>
+  </si>
+  <si>
+    <t>cancelVisit</t>
+  </si>
+  <si>
+    <t>bookVisitWithInsurance</t>
+  </si>
+  <si>
+    <t>bookVisitWithCreditCard</t>
+  </si>
+  <si>
+    <t>refundVisitTotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -246,21 +256,30 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +304,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -433,11 +458,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -456,6 +518,11 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1715,13 +1782,13 @@
     <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,201 +1808,283 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19"/>
+      <c r="D5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="19"/>
+      <c r="D6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="19"/>
+      <c r="D8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,10 +2112,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="7"/>
@@ -1974,10 +2123,10 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1985,10 +2134,10 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1996,10 +2145,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2007,10 +2156,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2018,10 +2167,10 @@
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2029,7 +2178,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -2041,10 +2190,10 @@
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
@@ -2052,10 +2201,10 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2063,10 +2212,10 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2074,10 +2223,10 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2085,10 +2234,10 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2096,10 +2245,10 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2107,10 +2256,10 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2118,10 +2267,10 @@
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2129,10 +2278,10 @@
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2395,10 +2544,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2406,10 +2555,10 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2417,10 +2566,10 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2428,10 +2577,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="41180" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
     <t>critical</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>refundVisitTotal</t>
+  </si>
+  <si>
+    <t>regression</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1823,7 +1823,7 @@
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -1837,7 +1837,7 @@
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -1851,7 +1851,7 @@
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1859,13 +1859,13 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -1873,13 +1873,13 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1887,13 +1887,13 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1901,13 +1901,13 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -1921,7 +1921,7 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -1929,13 +1929,13 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1957,13 +1957,13 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1977,7 +1977,7 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -1998,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>17</v>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -2046,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
@@ -2062,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -2078,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A14"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>7</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>

--- a/Automation/runs/Critical_path_OPS.xlsx
+++ b/Automation/runs/Critical_path_OPS.xlsx
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>7</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
